--- a/Doyenify1804.xlsx
+++ b/Doyenify1804.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\data_analtytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,17 +28,14 @@
     <definedName name="_xlchart.3" hidden="1">Top3Occupation!$A$2:$A$5</definedName>
     <definedName name="_xlchart.4" hidden="1">Top3Occupation!$B$1</definedName>
     <definedName name="_xlchart.5" hidden="1">Top3Occupation!$B$2:$B$5</definedName>
-    <definedName name="_xlchart.6" hidden="1">Top3Occupation!$A$2:$A$5</definedName>
-    <definedName name="_xlchart.7" hidden="1">Top3Occupation!$B$1</definedName>
-    <definedName name="_xlchart.8" hidden="1">Top3Occupation!$B$2:$B$5</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet3!$A$1:$H$23</definedName>
     <definedName name="ExternalData_1" localSheetId="4" hidden="1">Top3Occupation!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId9"/>
-    <pivotCache cacheId="24" r:id="rId10"/>
-    <pivotCache cacheId="37" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,19 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="147">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="143">
   <si>
     <t>Count</t>
   </si>
@@ -642,7 +627,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -915,7 +899,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1017,7 +1000,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1066,7 +1048,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1121,10 +1102,100 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -1197,6 +1268,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1211,6 +1287,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1225,6 +1306,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1239,6 +1325,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1253,6 +1344,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1267,6 +1363,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1283,6 +1384,11 @@
               <a:effectLst/>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-DF88-4660-92EA-32A55E2B2A2D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1354,7 +1460,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -1424,7 +1529,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1444,7 +1548,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3656,7 +3759,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3706,7 +3808,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:solidFill>
               <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3760,10 +3861,65 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3798,6 +3954,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8B4E-4F2B-9DCE-354B2CCEC55B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3813,6 +3974,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8B4E-4F2B-9DCE-354B2CCEC55B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3828,6 +3994,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8B4E-4F2B-9DCE-354B2CCEC55B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3843,6 +4014,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8B4E-4F2B-9DCE-354B2CCEC55B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3913,7 +4089,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3986,7 +4161,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9514,7 +9688,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="District">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="District">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -9664,7 +9838,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="District">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="District">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -9866,7 +10040,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Occupation">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable16" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6" rowHeaderCaption="Occupation">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -10348,691 +10522,691 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>44693</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>2.9333333333333331</v>
+        <v>2.9361111111111109</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>39459</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>17.266666666666666</v>
+        <v>17.269444444444446</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>33076</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>34.738888888888887</v>
+        <v>34.741666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>32057</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>37.530555555555559</v>
+        <v>37.533333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>31727</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>38.43611111111111</v>
+        <v>38.43888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2">
         <v>28797</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>46.458333333333336</v>
+        <v>46.461111111111109</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>32878</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>35.286111111111111</v>
+        <v>35.288888888888891</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>30728</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I9" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>41.172222222222224</v>
+        <v>41.174999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2">
         <v>31118</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I10" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>40.1</v>
+        <v>40.102777777777774</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2">
         <v>27910</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>48.883333333333333</v>
+        <v>48.886111111111113</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2">
         <v>29339</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I12" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>44.972222222222221</v>
+        <v>44.975000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2">
         <v>32525</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I13" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>36.25277777777778</v>
+        <v>36.255555555555553</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2">
         <v>30299</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I14" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>42.344444444444441</v>
+        <v>42.347222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2">
         <v>29813</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I15" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>43.674999999999997</v>
+        <v>43.677777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2">
         <v>34879</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>29.802777777777777</v>
+        <v>29.805555555555557</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2">
         <v>34396</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>31.125</v>
+        <v>31.127777777777776</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2">
         <v>30362</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I18" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>42.174999999999997</v>
+        <v>42.177777777777777</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2">
         <v>29127</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I19" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>45.552777777777777</v>
+        <v>45.555555555555557</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2">
         <v>35419</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I20" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>28.327777777777779</v>
+        <v>28.330555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2">
         <v>33491</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I21" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>33.605555555555554</v>
+        <v>33.608333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2">
         <v>34164</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I22" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>31.761111111111113</v>
+        <v>31.763888888888889</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2">
         <v>32317</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I23" s="3">
         <f ca="1">YEARFRAC(population_data[[#This Row],[date_of_birth]], NOW())</f>
-        <v>36.819444444444443</v>
+        <v>36.822222222222223</v>
       </c>
     </row>
   </sheetData>
@@ -11059,15 +11233,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
@@ -11075,7 +11249,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -11083,7 +11257,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -11091,7 +11265,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -11099,7 +11273,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -11107,7 +11281,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -11115,7 +11289,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -11123,7 +11297,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -11151,15 +11325,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>28.038888888888888</v>
@@ -11167,7 +11341,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3">
         <v>40.972222222222221</v>
@@ -11175,7 +11349,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3">
         <v>38.685185185185183</v>
@@ -11183,7 +11357,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" s="3">
         <v>44.651851851851852</v>
@@ -11191,7 +11365,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B8" s="3">
         <v>40.757407407407406</v>
@@ -11199,7 +11373,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B9" s="3">
         <v>30.463888888888889</v>
@@ -11207,7 +11381,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B10" s="3">
         <v>36.819444444444443</v>
@@ -11215,7 +11389,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3">
         <v>35.873611111111103</v>
@@ -11243,15 +11417,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -11259,7 +11433,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -11267,7 +11441,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -11275,7 +11449,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -11313,34 +11487,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -11348,28 +11522,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>44693</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="3">
         <v>2.9333333333333331</v>
@@ -11380,28 +11554,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>39459</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3">
         <v>17.266666666666666</v>
@@ -11412,28 +11586,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>33076</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3">
         <v>34.738888888888887</v>
@@ -11444,28 +11618,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>32057</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>37.530555555555559</v>
@@ -11476,28 +11650,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>31727</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J6" s="3">
         <v>38.43611111111111</v>
@@ -11508,28 +11682,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>28797</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J7" s="3">
         <v>46.458333333333336</v>
@@ -11540,28 +11714,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>32878</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J8" s="3">
         <v>35.286111111111111</v>
@@ -11572,28 +11746,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>30728</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J9" s="3">
         <v>41.172222222222224</v>
@@ -11604,28 +11778,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>31118</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J10" s="3">
         <v>40.1</v>
@@ -11636,28 +11810,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>27910</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3">
         <v>48.883333333333333</v>
@@ -11668,28 +11842,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>29339</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J12" s="3">
         <v>44.972222222222221</v>
@@ -11700,28 +11874,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>32525</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J13" s="3">
         <v>36.25277777777778</v>
@@ -11732,28 +11906,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>30299</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J14" s="3">
         <v>42.344444444444441</v>
@@ -11764,28 +11938,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>29813</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J15" s="3">
         <v>43.674999999999997</v>
@@ -11796,28 +11970,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>34879</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J16" s="3">
         <v>29.802777777777777</v>
@@ -11828,28 +12002,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>34396</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>31.125</v>
@@ -11860,28 +12034,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>30362</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J18" s="3">
         <v>42.174999999999997</v>
@@ -11892,28 +12066,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D19">
         <v>29127</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J19" s="3">
         <v>45.552777777777777</v>
@@ -11924,28 +12098,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>35419</v>
       </c>
       <c r="E20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J20" s="3">
         <v>28.327777777777779</v>
@@ -11956,28 +12130,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D21">
         <v>33491</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J21" s="3">
         <v>33.605555555555554</v>
@@ -11988,28 +12162,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D22">
         <v>34164</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J22" s="3">
         <v>31.761111111111113</v>
@@ -12020,28 +12194,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D23">
         <v>32317</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J23" s="3">
         <v>36.819444444444443</v>
@@ -12062,7 +12236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D390"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A343" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A349" workbookViewId="0">
       <selection activeCell="R377" sqref="R377"/>
     </sheetView>
   </sheetViews>
@@ -12070,7 +12244,7 @@
   <sheetData>
     <row r="390" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D390" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -12095,15 +12269,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -12111,7 +12285,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -12119,7 +12293,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -12127,7 +12301,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -12135,7 +12309,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
